--- a/data/template_exempted.xlsx
+++ b/data/template_exempted.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="377">
   <si>
     <t>Emp ID</t>
   </si>
@@ -807,6 +807,9 @@
     <t>Prakash Talukdar</t>
   </si>
   <si>
+    <t>Binod Das</t>
+  </si>
+  <si>
     <t>Dwipen Das</t>
   </si>
   <si>
@@ -867,6 +870,9 @@
     <t>GCU030114</t>
   </si>
   <si>
+    <t>GCU030145</t>
+  </si>
+  <si>
     <t>GCU010005</t>
   </si>
   <si>
@@ -1038,324 +1044,119 @@
     <t>Reason7</t>
   </si>
   <si>
+    <t>Dr. Bondita Baruah</t>
+  </si>
+  <si>
+    <t>Mrinmoy Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. Manoj Khaund</t>
+  </si>
+  <si>
+    <t>Dr. Tejoswita Gogoi</t>
+  </si>
+  <si>
+    <t>Mona Alice Marbaniang</t>
+  </si>
+  <si>
+    <t>Raisa Choudhury</t>
+  </si>
+  <si>
     <t>GCU020149</t>
   </si>
   <si>
-    <t>Dr. Bondita Baruah</t>
+    <t>GCU020166</t>
+  </si>
+  <si>
+    <t>GCU020152</t>
+  </si>
+  <si>
+    <t>GCU020170</t>
+  </si>
+  <si>
+    <t>GCU010013</t>
   </si>
   <si>
     <t>GCU030175</t>
   </si>
   <si>
-    <t>Mrinmoy Gogoi</t>
-  </si>
-  <si>
-    <t>Ashutosh Das</t>
-  </si>
-  <si>
-    <t>GCU030091</t>
-  </si>
-  <si>
-    <t>Rituparna Choudhury</t>
-  </si>
-  <si>
-    <t>GCU020171</t>
-  </si>
-  <si>
-    <t>Raisa Choudhury</t>
-  </si>
-  <si>
-    <t>Pasang Drema Goiba</t>
-  </si>
-  <si>
-    <t>Manoj Khaund</t>
-  </si>
-  <si>
-    <t>GCU010013</t>
-  </si>
-  <si>
-    <t>GCU020155</t>
-  </si>
-  <si>
-    <t>GCU020166</t>
-  </si>
-  <si>
-    <t>Mona Alice Marbaniang</t>
-  </si>
-  <si>
-    <t>GCU020170</t>
-  </si>
-  <si>
-    <t>Day8</t>
-  </si>
-  <si>
-    <t>Reason8</t>
-  </si>
-  <si>
-    <t>Reason9</t>
-  </si>
-  <si>
-    <t>Day9</t>
-  </si>
-  <si>
-    <t>Day10</t>
-  </si>
-  <si>
-    <t>Reason10</t>
-  </si>
-  <si>
-    <t>Arijit Nath</t>
+    <t>Sasank Bujar Baruah</t>
+  </si>
+  <si>
+    <t>Suranjana Patworay</t>
+  </si>
+  <si>
+    <t>Sudarshana Saikia</t>
+  </si>
+  <si>
+    <t>Sikha Rani Das</t>
+  </si>
+  <si>
+    <t>Madhusmita Ronghangpi</t>
+  </si>
+  <si>
+    <t>Subungshri Basumatary</t>
+  </si>
+  <si>
+    <t>Tridib Roy</t>
+  </si>
+  <si>
+    <t>Dr. Shalini Ojha</t>
+  </si>
+  <si>
+    <t>GCU020182</t>
+  </si>
+  <si>
+    <t>GCU030187</t>
+  </si>
+  <si>
+    <t>GCU020179</t>
+  </si>
+  <si>
+    <t>GCU020178</t>
+  </si>
+  <si>
+    <t>GCU030053</t>
+  </si>
+  <si>
+    <t>GCU020163</t>
+  </si>
+  <si>
+    <t>GCU020169</t>
   </si>
   <si>
     <t>GCU030031</t>
   </si>
   <si>
-    <t>Tridib Roy</t>
-  </si>
-  <si>
-    <t>Abhishek Kakati</t>
-  </si>
-  <si>
-    <t>Dr. Tejoswita Gogoi</t>
-  </si>
-  <si>
-    <t>Arup Kr Das</t>
-  </si>
-  <si>
-    <t>Anjan Deka</t>
-  </si>
-  <si>
-    <t>GCU010042</t>
-  </si>
-  <si>
-    <t>GCU030177</t>
-  </si>
-  <si>
-    <t>GCU020168</t>
-  </si>
-  <si>
-    <t>GCU020152</t>
-  </si>
-  <si>
-    <t>Safizul Islam</t>
-  </si>
-  <si>
-    <t>Madhusmita Ronghangpi</t>
-  </si>
-  <si>
-    <t>Mr. Prabodh Barman</t>
-  </si>
-  <si>
-    <t>GCU030014</t>
-  </si>
-  <si>
-    <t>Mr. Kandarpa Bezbaruah</t>
-  </si>
-  <si>
-    <t>Mr. Ramen Talukdar</t>
-  </si>
-  <si>
-    <t>Mr. Mantu Kr Kalita</t>
-  </si>
-  <si>
-    <t>Mr. Tapan kr Tamuli</t>
-  </si>
-  <si>
-    <t>Mr. Hitesh Barman</t>
-  </si>
-  <si>
-    <t>Mr. Bhogeswar Saikia</t>
-  </si>
-  <si>
-    <t>GCU030041</t>
-  </si>
-  <si>
-    <t>GCU030046</t>
-  </si>
-  <si>
-    <t>GCU030058</t>
-  </si>
-  <si>
-    <t>GCU030097</t>
-  </si>
-  <si>
-    <t>GCU030101</t>
-  </si>
-  <si>
-    <t>GCU020169</t>
-  </si>
-  <si>
-    <t>GCU030129</t>
-  </si>
-  <si>
-    <t>Dr. Diganta Jyoti Sarma</t>
-  </si>
-  <si>
-    <t>GCU020165</t>
-  </si>
-  <si>
-    <t>Dr. Dipunja Gohain</t>
-  </si>
-  <si>
-    <t>GCU020173</t>
-  </si>
-  <si>
-    <t>Dr. Nandita Chitrakar</t>
-  </si>
-  <si>
-    <t>GCU020167</t>
-  </si>
-  <si>
-    <t>Ms. Geetanjali Gogoi</t>
-  </si>
-  <si>
-    <t>Ms. Monirupa Misra</t>
-  </si>
-  <si>
-    <t>GCU030042</t>
+    <t>Himangshu Patowary</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SSA Panbazar</t>
+  </si>
+  <si>
+    <t>CA Office</t>
+  </si>
+  <si>
+    <t>Bus Late</t>
+  </si>
+  <si>
+    <t>Geetanjali Gogoi</t>
   </si>
   <si>
     <t>GCU030180</t>
-  </si>
-  <si>
-    <t>Mr. Bhaskar Chakravarty</t>
-  </si>
-  <si>
-    <t>GCU030007</t>
-  </si>
-  <si>
-    <t>Dr. Ummey Rummana Barlaskar</t>
-  </si>
-  <si>
-    <t>GCU020153</t>
-  </si>
-  <si>
-    <t>Amarjyoti Pathak</t>
-  </si>
-  <si>
-    <t>Ms. Rubi Kalita</t>
-  </si>
-  <si>
-    <t>GCU030032</t>
-  </si>
-  <si>
-    <t>Ms. Mridusmita Baruah</t>
-  </si>
-  <si>
-    <t>GCU030069</t>
-  </si>
-  <si>
-    <t>Ms. Gargee Chakravarty</t>
-  </si>
-  <si>
-    <t>GCU020164</t>
-  </si>
-  <si>
-    <t>Ms. Subungshri Basumatary</t>
-  </si>
-  <si>
-    <t>GCU020163</t>
-  </si>
-  <si>
-    <t>Bus Late</t>
-  </si>
-  <si>
-    <t>Mr. Amarjyoti Pathak</t>
-  </si>
-  <si>
-    <t>GCU020031</t>
-  </si>
-  <si>
-    <t>Mr. Kalyan Changmai</t>
-  </si>
-  <si>
-    <t>GCU030144</t>
-  </si>
-  <si>
-    <t>Mr. Bhabajyoti Baishya</t>
-  </si>
-  <si>
-    <t>GCU030141</t>
-  </si>
-  <si>
-    <t>Mahesh Das</t>
-  </si>
-  <si>
-    <t>GCU030018</t>
-  </si>
-  <si>
-    <t>GCU030061</t>
-  </si>
-  <si>
-    <t>Rupam Sarmah</t>
-  </si>
-  <si>
-    <t>Isha Haque Ali</t>
-  </si>
-  <si>
-    <t>GCU030028</t>
-  </si>
-  <si>
-    <t>Dr. Tejaswita Gogoi</t>
-  </si>
-  <si>
-    <t>Dr. Ummey Rumanna Barlaskar</t>
-  </si>
-  <si>
-    <t>Dipunja Gohain</t>
-  </si>
-  <si>
-    <t>Nausad Ahmed</t>
-  </si>
-  <si>
-    <t>Monoj Rajkhowa</t>
-  </si>
-  <si>
-    <t>GCU030161</t>
-  </si>
-  <si>
-    <t>GCU020156</t>
-  </si>
-  <si>
-    <t>Duty Leave</t>
-  </si>
-  <si>
-    <t>Rituraj Phukan</t>
-  </si>
-  <si>
-    <t>Compensatory Leave</t>
-  </si>
-  <si>
-    <t>Hiran Devi</t>
-  </si>
-  <si>
-    <t>Promotional activities</t>
-  </si>
-  <si>
-    <t>College Visited</t>
-  </si>
-  <si>
-    <t>GCU030035</t>
-  </si>
-  <si>
-    <t>GCU030166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1381,31 +1182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,84 +1484,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:B100"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1790,11 +1580,11 @@
         <v>25</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1593,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -1812,7 +1602,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1820,12 +1610,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1834,16 +1622,27 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="C8" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45924</v>
+      </c>
+      <c r="F8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1851,10 +1650,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1863,21 +1662,17 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1886,34 +1681,31 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -1922,7 +1714,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -1930,7 +1722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -1938,24 +1730,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>160</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -1963,21 +1751,22 @@
         <v>41</v>
       </c>
       <c r="C20" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>413</v>
+        <v>45924</v>
+      </c>
+      <c r="D20" t="s">
+        <v>374</v>
       </c>
       <c r="E20" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>413</v>
+        <v>45925</v>
+      </c>
+      <c r="F20" t="s">
+        <v>374</v>
       </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1985,7 +1774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -1993,7 +1782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2001,47 +1790,49 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="C25" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45924</v>
+      </c>
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -2049,11 +1840,10 @@
         <v>48</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -2061,16 +1851,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>168</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -2078,8 +1867,9 @@
         <v>51</v>
       </c>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -2088,7 +1878,7 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -2096,7 +1886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -2104,25 +1894,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -2130,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2139,1276 +1927,1026 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>175</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>177</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>178</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+      <c r="C41" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45924</v>
+      </c>
+      <c r="F41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>179</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
         <v>180</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
         <v>182</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
         <v>183</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
         <v>184</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
         <v>185</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
         <v>187</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
         <v>188</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
         <v>189</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B54" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
         <v>190</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
         <v>23</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
         <v>191</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
         <v>192</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
         <v>193</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
         <v>194</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
         <v>195</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
         <v>196</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+      <c r="C62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
         <v>197</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
         <v>198</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>199</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>200</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>201</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>202</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>203</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>204</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>205</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>206</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>207</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>208</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>209</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>210</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
+      <c r="C76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>211</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>212</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
         <v>213</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>214</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>216</v>
-      </c>
-      <c r="B80" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
         <v>233</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B99" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
         <v>234</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B100" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
-        <v>235</v>
-      </c>
-      <c r="B98" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>236</v>
-      </c>
-      <c r="B99" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>237</v>
-      </c>
-      <c r="B100" t="s">
-        <v>124</v>
-      </c>
       <c r="C100" s="1">
-        <v>45831</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>413</v>
+        <v>45924</v>
+      </c>
+      <c r="D100" t="s">
+        <v>374</v>
       </c>
       <c r="E100" s="1"/>
       <c r="G100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="K100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45924</v>
+      </c>
+      <c r="D103" t="s">
+        <v>374</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45925</v>
+      </c>
+      <c r="F103" t="s">
+        <v>374</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
         <v>239</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
         <v>240</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
         <v>241</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>128</v>
       </c>
-      <c r="C104" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D104" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
+      <c r="C106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
         <v>242</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
         <v>243</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
         <v>244</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
         <v>245</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
         <v>246</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>133</v>
       </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
         <v>247</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
         <v>248</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112" t="s">
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
         <v>249</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113" t="s">
-        <v>250</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
         <v>251</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>138</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" t="s">
+      <c r="C115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
         <v>252</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>139</v>
       </c>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" t="s">
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
         <v>254</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
         <v>255</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
         <v>256</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E118" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" t="s">
+      <c r="C119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
         <v>257</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" t="s">
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
         <v>258</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
         <v>259</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" t="s">
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" t="s">
         <v>260</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D123" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B124" t="s">
         <v>267</v>
       </c>
-      <c r="C124" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D124" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+      <c r="C124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B125" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D125" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="C125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B126" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D126" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="C126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B127" t="s">
         <v>270</v>
       </c>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
         <v>271</v>
       </c>
       <c r="C128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B129" t="s">
         <v>272</v>
       </c>
       <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:9">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B130" t="s">
         <v>273</v>
       </c>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B132" t="s">
-        <v>289</v>
-      </c>
-      <c r="C132" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E132" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>290</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B133" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C133" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>413</v>
+        <v>45924</v>
+      </c>
+      <c r="D133" t="s">
+        <v>374</v>
       </c>
       <c r="E133" s="1">
-        <v>45831</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>413</v>
+        <v>45925</v>
+      </c>
+      <c r="F133" t="s">
+        <v>374</v>
       </c>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B134" t="s">
-        <v>291</v>
-      </c>
-      <c r="C134" s="1">
-        <v>45831</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:9">
+      <c r="I134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B135" t="s">
-        <v>341</v>
-      </c>
-      <c r="C135" s="1">
-        <v>45804</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C135" s="1"/>
       <c r="E135" s="1"/>
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="K135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" t="s">
         <v>342</v>
       </c>
-      <c r="B136" t="s">
-        <v>343</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="C136" s="1">
+        <v>45924</v>
+      </c>
+      <c r="D136" t="s">
+        <v>374</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1"/>
       <c r="E137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
+        <v>350</v>
+      </c>
+      <c r="B138" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" t="s">
         <v>351</v>
       </c>
-      <c r="B138" t="s">
-        <v>348</v>
-      </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" t="s">
         <v>352</v>
       </c>
-      <c r="B139" t="s">
-        <v>349</v>
-      </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" t="s">
-        <v>353</v>
-      </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:9">
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" t="s">
         <v>355</v>
       </c>
-      <c r="B141" t="s">
-        <v>354</v>
-      </c>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9">
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B142" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:9">
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B143" t="s">
-        <v>366</v>
-      </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9">
+        <v>361</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45924</v>
+      </c>
+      <c r="D143" t="s">
+        <v>374</v>
+      </c>
+      <c r="E143" s="1">
+        <v>45925</v>
+      </c>
+      <c r="F143" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B144" t="s">
-        <v>373</v>
-      </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>388</v>
-      </c>
-      <c r="B145" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45922</v>
+      </c>
+      <c r="D144" t="s">
         <v>374</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>376</v>
-      </c>
-      <c r="B146" t="s">
-        <v>375</v>
-      </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>391</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>393</v>
-      </c>
-      <c r="B154" t="s">
-        <v>392</v>
-      </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>395</v>
-      </c>
-      <c r="B155" t="s">
-        <v>394</v>
-      </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>399</v>
-      </c>
-      <c r="B156" t="s">
-        <v>396</v>
-      </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>398</v>
-      </c>
-      <c r="B157" t="s">
-        <v>397</v>
-      </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>401</v>
-      </c>
-      <c r="B158" t="s">
-        <v>400</v>
-      </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>403</v>
-      </c>
-      <c r="B159" t="s">
-        <v>402</v>
-      </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" t="s">
-        <v>298</v>
-      </c>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>415</v>
-      </c>
-      <c r="B161" t="s">
-        <v>404</v>
-      </c>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>406</v>
-      </c>
-      <c r="B162" t="s">
-        <v>405</v>
-      </c>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>408</v>
-      </c>
-      <c r="B163" t="s">
-        <v>407</v>
-      </c>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>410</v>
-      </c>
-      <c r="B164" t="s">
-        <v>409</v>
-      </c>
-      <c r="C164" s="1"/>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>412</v>
-      </c>
-      <c r="B165" t="s">
-        <v>411</v>
-      </c>
-      <c r="C165" s="1"/>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="C166" s="1"/>
+      <c r="E144" s="1">
+        <v>45924</v>
+      </c>
+      <c r="F144" t="s">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3418,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3429,9 +2967,9 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3480,12 +3018,7 @@
       <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D2" t="s">
-        <v>437</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -3632,6 +3165,7 @@
       <c r="B18" t="s">
         <v>39</v>
       </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
@@ -3656,7 +3190,6 @@
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
@@ -3673,7 +3206,6 @@
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
@@ -3682,7 +3214,6 @@
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
@@ -3723,7 +3254,6 @@
       <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
@@ -3780,1100 +3310,947 @@
       <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D36" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D88" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
-      </c>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45924</v>
+      </c>
+      <c r="D125" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45925</v>
+      </c>
+      <c r="F125" t="s">
+        <v>372</v>
+      </c>
+      <c r="G125" s="1">
+        <v>45946</v>
+      </c>
+      <c r="H125" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>288</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B127" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B132" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B133" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B136" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B137" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B138" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B139" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B140" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B141" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B142" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="B147" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>342</v>
-      </c>
-      <c r="B149" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>363</v>
-      </c>
-      <c r="B150" t="s">
-        <v>364</v>
-      </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>353</v>
-      </c>
-      <c r="B151" t="s">
-        <v>350</v>
-      </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>415</v>
-      </c>
-      <c r="B152" t="s">
-        <v>414</v>
-      </c>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>369</v>
-      </c>
-      <c r="B153" t="s">
-        <v>368</v>
-      </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>417</v>
-      </c>
-      <c r="B154" t="s">
-        <v>416</v>
-      </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>419</v>
-      </c>
-      <c r="B155" t="s">
-        <v>418</v>
-      </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>342</v>
-      </c>
-      <c r="B156" t="s">
-        <v>343</v>
-      </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>422</v>
-      </c>
-      <c r="B157" t="s">
-        <v>423</v>
-      </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>421</v>
-      </c>
-      <c r="B158" t="s">
-        <v>420</v>
-      </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>425</v>
-      </c>
-      <c r="B159" t="s">
-        <v>424</v>
-      </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>393</v>
-      </c>
-      <c r="B160" t="s">
-        <v>392</v>
-      </c>
-      <c r="C160" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D160" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>401</v>
-      </c>
-      <c r="B161" t="s">
-        <v>400</v>
-      </c>
-      <c r="C161" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D161" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>389</v>
-      </c>
-      <c r="B162" t="s">
-        <v>373</v>
-      </c>
-      <c r="C162" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D162" t="s">
-        <v>438</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4883,17 +4260,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
@@ -4902,12 +4280,9 @@
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4945,37 +4320,31 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="R1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="S1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="T1" t="s">
-        <v>358</v>
-      </c>
-      <c r="U1" t="s">
-        <v>360</v>
-      </c>
-      <c r="V1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4990,7 +4359,7 @@
       <c r="M2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5005,7 +4374,7 @@
       <c r="M3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +4389,7 @@
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -5029,7 +4398,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -5044,7 +4413,7 @@
       <c r="M6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -5059,7 +4428,7 @@
       <c r="M7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -5072,7 +4441,7 @@
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -5087,7 +4456,7 @@
       <c r="M9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -5102,7 +4471,7 @@
       <c r="M10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -5117,7 +4486,7 @@
       <c r="M11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -5132,7 +4501,7 @@
       <c r="M12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -5147,7 +4516,7 @@
       <c r="M13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5162,7 +4531,7 @@
       <c r="M14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -5177,7 +4546,7 @@
       <c r="M15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -5192,7 +4561,7 @@
       <c r="M16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -5207,7 +4576,7 @@
       <c r="M17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -5222,7 +4591,7 @@
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -5237,7 +4606,7 @@
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>161</v>
       </c>
@@ -5252,7 +4621,7 @@
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5267,7 +4636,7 @@
       <c r="M21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -5282,7 +4651,7 @@
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -5297,7 +4666,7 @@
       <c r="M23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -5311,11 +4680,8 @@
       <c r="K24" s="1"/>
       <c r="M24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -5330,7 +4696,7 @@
       <c r="M25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -5338,7 +4704,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -5353,7 +4719,7 @@
       <c r="M27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -5368,7 +4734,7 @@
       <c r="M28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -5383,7 +4749,7 @@
       <c r="M29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>169</v>
       </c>
@@ -5398,7 +4764,7 @@
       <c r="M30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -5413,7 +4779,7 @@
       <c r="M31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -6231,11 +5597,6 @@
       <c r="B87" t="s">
         <v>113</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
@@ -6313,6 +5674,7 @@
       <c r="B94" t="s">
         <v>121</v>
       </c>
+      <c r="C94" s="1"/>
       <c r="E94" s="1"/>
       <c r="G94" s="1"/>
       <c r="I94" s="1"/>
@@ -6327,6 +5689,7 @@
       <c r="B95" t="s">
         <v>122</v>
       </c>
+      <c r="C95" s="1"/>
       <c r="E95" s="1"/>
       <c r="G95" s="1"/>
       <c r="I95" s="1"/>
@@ -6341,6 +5704,7 @@
       <c r="B96" t="s">
         <v>123</v>
       </c>
+      <c r="C96" s="1"/>
       <c r="E96" s="1"/>
       <c r="G96" s="1"/>
       <c r="I96" s="1"/>
@@ -6355,6 +5719,7 @@
       <c r="B97" t="s">
         <v>124</v>
       </c>
+      <c r="C97" s="1"/>
       <c r="E97" s="1"/>
       <c r="G97" s="1"/>
       <c r="I97" s="1"/>
@@ -6580,7 +5945,7 @@
       <c r="M112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:19">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -6595,7 +5960,7 @@
       <c r="M113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:19">
       <c r="A114" t="s">
         <v>255</v>
       </c>
@@ -6610,7 +5975,7 @@
       <c r="M114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:19">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -6625,7 +5990,7 @@
       <c r="M115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:19">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -6640,7 +6005,7 @@
       <c r="M116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:19">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -6655,7 +6020,7 @@
       <c r="M117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:19">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -6670,7 +6035,7 @@
       <c r="M118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:19">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -6685,251 +6050,107 @@
       <c r="M119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:19">
       <c r="A120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B120" t="s">
         <v>262</v>
       </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:19">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B121" t="s">
         <v>263</v>
       </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:19">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
         <v>264</v>
       </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:19">
       <c r="A123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B123" t="s">
         <v>265</v>
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:19">
       <c r="A124" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="O124" s="1"/>
-    </row>
-    <row r="125" spans="1:15">
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:19">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="C127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:15">
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" t="s">
+        <v>360</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B129" t="s">
         <v>370</v>
       </c>
-      <c r="B128" t="s">
-        <v>362</v>
-      </c>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" t="s">
-        <v>316</v>
-      </c>
-      <c r="B129" t="s">
-        <v>367</v>
-      </c>
       <c r="C129" s="1">
-        <v>45812</v>
+        <v>45951</v>
       </c>
       <c r="D129" t="s">
-        <v>435</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="1"/>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" t="s">
-        <v>369</v>
-      </c>
-      <c r="B130" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" t="s">
-        <v>417</v>
-      </c>
-      <c r="B131" t="s">
-        <v>416</v>
-      </c>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" t="s">
-        <v>395</v>
-      </c>
-      <c r="B132" t="s">
-        <v>394</v>
-      </c>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" t="s">
-        <v>372</v>
-      </c>
-      <c r="B133" t="s">
-        <v>426</v>
-      </c>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" t="s">
-        <v>403</v>
-      </c>
-      <c r="B134" t="s">
-        <v>427</v>
-      </c>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" t="s">
-        <v>393</v>
-      </c>
-      <c r="B135" t="s">
-        <v>428</v>
-      </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" t="s">
-        <v>431</v>
-      </c>
-      <c r="B136" t="s">
-        <v>429</v>
-      </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" t="s">
-        <v>432</v>
-      </c>
-      <c r="B137" t="s">
-        <v>430</v>
-      </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" t="s">
-        <v>439</v>
-      </c>
-      <c r="B138" t="s">
-        <v>434</v>
-      </c>
-      <c r="C138" s="1">
-        <v>45831</v>
-      </c>
-      <c r="D138" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" t="s">
-        <v>440</v>
-      </c>
-      <c r="B139" t="s">
-        <v>436</v>
-      </c>
-      <c r="C139" s="1">
-        <v>45827</v>
-      </c>
-      <c r="D139" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" t="s">
-        <v>313</v>
-      </c>
-      <c r="B140" t="s">
-        <v>294</v>
-      </c>
-      <c r="C140" s="1">
-        <v>45824</v>
-      </c>
-      <c r="D140" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" t="s">
-        <v>237</v>
-      </c>
-      <c r="B141" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="1">
-        <v>45811</v>
-      </c>
-      <c r="D141" t="s">
-        <v>433</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/template_exempted.xlsx
+++ b/data/template_exempted.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="late" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="376">
   <si>
     <t>Emp ID</t>
   </si>
@@ -1131,22 +1131,19 @@
     <t>Himangshu Patowary</t>
   </si>
   <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>SSA Panbazar</t>
-  </si>
-  <si>
-    <t>CA Office</t>
-  </si>
-  <si>
-    <t>Bus Late</t>
-  </si>
-  <si>
     <t>Geetanjali Gogoi</t>
   </si>
   <si>
     <t>GCU030180</t>
+  </si>
+  <si>
+    <t>Bhagyashree Mahanta</t>
+  </si>
+  <si>
+    <t>Fariza Saidin</t>
+  </si>
+  <si>
+    <t>Bus late</t>
   </si>
 </sst>
 </file>
@@ -1182,9 +1179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,18 +1484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P146"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
@@ -1609,7 +1609,12 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D6" t="s">
+        <v>375</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -1629,18 +1634,8 @@
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>45922</v>
-      </c>
-      <c r="D8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45924</v>
-      </c>
-      <c r="F8" t="s">
-        <v>374</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
@@ -1669,7 +1664,12 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D11" t="s">
+        <v>375</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -1750,18 +1750,8 @@
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="1">
-        <v>45925</v>
-      </c>
-      <c r="F20" t="s">
-        <v>374</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
@@ -1805,18 +1795,8 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1">
-        <v>45922</v>
-      </c>
-      <c r="D25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45924</v>
-      </c>
-      <c r="F25" t="s">
-        <v>374</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
@@ -1886,7 +1866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -1902,7 +1882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -1910,7 +1890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>174</v>
       </c>
@@ -1918,7 +1898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1907,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -1936,7 +1916,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>176</v>
       </c>
@@ -1944,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>177</v>
       </c>
@@ -1952,27 +1932,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>178</v>
       </c>
       <c r="B41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="1">
-        <v>45922</v>
-      </c>
-      <c r="D41" t="s">
-        <v>374</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45924</v>
-      </c>
-      <c r="F41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -1988,7 +1958,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -1996,7 +1966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -2004,7 +1974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -2012,7 +1982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -2020,7 +1990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -2259,7 +2229,12 @@
       <c r="B76" t="s">
         <v>97</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D76" t="s">
+        <v>375</v>
+      </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5">
@@ -2417,7 +2392,12 @@
       <c r="B95" t="s">
         <v>116</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="G95" s="1"/>
     </row>
@@ -2460,12 +2440,7 @@
       <c r="B100" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D100" t="s">
-        <v>374</v>
-      </c>
+      <c r="C100" s="1"/>
       <c r="E100" s="1"/>
       <c r="G100" s="1"/>
       <c r="I100" s="1"/>
@@ -2496,18 +2471,8 @@
       <c r="B103" t="s">
         <v>124</v>
       </c>
-      <c r="C103" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D103" t="s">
-        <v>374</v>
-      </c>
-      <c r="E103" s="1">
-        <v>45925</v>
-      </c>
-      <c r="F103" t="s">
-        <v>374</v>
-      </c>
+      <c r="C103" s="1"/>
+      <c r="E103" s="1"/>
       <c r="G103" s="1"/>
       <c r="I103" s="1"/>
       <c r="K103" s="1"/>
@@ -2609,7 +2574,12 @@
       <c r="B115" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
@@ -2712,7 +2682,12 @@
       <c r="B126" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D126" t="s">
+        <v>375</v>
+      </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:15">
@@ -2761,7 +2736,12 @@
       <c r="B131" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D131" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" t="s">
@@ -2779,18 +2759,8 @@
       <c r="B133" t="s">
         <v>291</v>
       </c>
-      <c r="C133" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D133" t="s">
-        <v>374</v>
-      </c>
-      <c r="E133" s="1">
-        <v>45925</v>
-      </c>
-      <c r="F133" t="s">
-        <v>374</v>
-      </c>
+      <c r="C133" s="1"/>
+      <c r="E133" s="1"/>
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
       <c r="K133" s="1"/>
@@ -2832,12 +2802,7 @@
       <c r="B136" t="s">
         <v>342</v>
       </c>
-      <c r="C136" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D136" t="s">
-        <v>374</v>
-      </c>
+      <c r="C136" s="1"/>
       <c r="E136" s="1"/>
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
@@ -2852,7 +2817,12 @@
       <c r="B137" t="s">
         <v>344</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D137" t="s">
+        <v>375</v>
+      </c>
       <c r="E137" s="1"/>
       <c r="G137" s="1"/>
     </row>
@@ -2863,7 +2833,12 @@
       <c r="B138" t="s">
         <v>345</v>
       </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D138" t="s">
+        <v>375</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="G138" s="1"/>
     </row>
@@ -2874,7 +2849,12 @@
       <c r="B139" t="s">
         <v>346</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D139" t="s">
+        <v>375</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="G139" s="1"/>
     </row>
@@ -2915,38 +2895,31 @@
       <c r="B143" t="s">
         <v>361</v>
       </c>
-      <c r="C143" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D143" t="s">
-        <v>374</v>
-      </c>
-      <c r="E143" s="1">
-        <v>45925</v>
-      </c>
-      <c r="F143" t="s">
-        <v>374</v>
-      </c>
+      <c r="C143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B144" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="1">
-        <v>45922</v>
-      </c>
-      <c r="D144" t="s">
+        <v>371</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
         <v>374</v>
       </c>
-      <c r="E144" s="1">
-        <v>45924</v>
-      </c>
-      <c r="F144" t="s">
-        <v>374</v>
-      </c>
+      <c r="C146" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3665,7 +3638,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -3673,7 +3646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -3681,7 +3654,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>218</v>
       </c>
@@ -3689,7 +3662,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -3697,7 +3670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -3705,7 +3678,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -3713,7 +3686,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>222</v>
       </c>
@@ -3721,15 +3694,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>223</v>
       </c>
       <c r="B88" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>224</v>
       </c>
@@ -3737,7 +3712,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -3745,7 +3720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -3753,7 +3728,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>227</v>
       </c>
@@ -3761,7 +3736,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>228</v>
       </c>
@@ -3769,7 +3744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>229</v>
       </c>
@@ -3777,7 +3752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>230</v>
       </c>
@@ -3785,7 +3760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -3921,7 +3896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -3929,7 +3904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -3937,7 +3912,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -3945,7 +3920,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -3953,7 +3928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>253</v>
       </c>
@@ -3961,7 +3936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -3969,7 +3944,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>255</v>
       </c>
@@ -3977,7 +3952,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>256</v>
       </c>
@@ -3986,7 +3961,7 @@
       </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>257</v>
       </c>
@@ -3994,7 +3969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>258</v>
       </c>
@@ -4002,7 +3977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>259</v>
       </c>
@@ -4010,7 +3985,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>260</v>
       </c>
@@ -4019,33 +3994,18 @@
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>279</v>
       </c>
       <c r="B125" t="s">
         <v>270</v>
       </c>
-      <c r="C125" s="1">
-        <v>45924</v>
-      </c>
-      <c r="D125" t="s">
-        <v>372</v>
-      </c>
-      <c r="E125" s="1">
-        <v>45925</v>
-      </c>
-      <c r="F125" t="s">
-        <v>372</v>
-      </c>
-      <c r="G125" s="1">
-        <v>45946</v>
-      </c>
-      <c r="H125" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="C125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>289</v>
       </c>
@@ -4054,7 +4014,7 @@
       </c>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>313</v>
       </c>
@@ -4063,7 +4023,7 @@
       </c>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>314</v>
       </c>
@@ -4262,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6139,19 +6099,14 @@
       <c r="Q128" s="1"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>332</v>
       </c>
       <c r="B129" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="1">
-        <v>45951</v>
-      </c>
-      <c r="D129" t="s">
-        <v>371</v>
-      </c>
+      <c r="C129" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
